--- a/Awards/Women/Tennis.xlsx
+++ b/Awards/Women/Tennis.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\Awards\Women\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE11A4-F083-4EEF-99EC-39ADEB08D21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="14690" windowHeight="9130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -277,36 +283,9 @@
     <t>Academic All-District</t>
   </si>
   <si>
-    <t>Midwest Confrence Doubles Champion (2)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Doubles Champion (3)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (3)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (4)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (6)</t>
-  </si>
-  <si>
     <t>Coach of the Year</t>
   </si>
   <si>
-    <t>Midwest Confrence Doubles Champion (1)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (1)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (2)</t>
-  </si>
-  <si>
-    <t>Midwest Confrence Singles Champion (5)</t>
-  </si>
-  <si>
     <t>Elite 20 Winner</t>
   </si>
   <si>
@@ -347,13 +326,19 @@
   </si>
   <si>
     <t>National</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midwest Confrence Doubles Champion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midwest Confrence Singles Champion </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,13 +401,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -460,7 +453,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -494,6 +487,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -528,9 +522,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,14 +698,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -735,10 +737,10 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -749,10 +751,10 @@
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -760,13 +762,13 @@
         <v>2024</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -774,13 +776,13 @@
         <v>2024</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -788,13 +790,13 @@
         <v>2024</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -802,13 +804,13 @@
         <v>2024</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -816,13 +818,13 @@
         <v>2024</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -830,13 +832,13 @@
         <v>2024</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -844,13 +846,13 @@
         <v>2024</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -861,10 +863,10 @@
         <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -875,10 +877,10 @@
         <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -889,10 +891,10 @@
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -903,10 +905,10 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -914,13 +916,13 @@
         <v>2023</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -928,13 +930,13 @@
         <v>2023</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -942,13 +944,13 @@
         <v>2023</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -956,13 +958,13 @@
         <v>2023</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -970,13 +972,13 @@
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -984,13 +986,13 @@
         <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -998,13 +1000,13 @@
         <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1012,13 +1014,13 @@
         <v>2023</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1026,13 +1028,13 @@
         <v>2023</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1040,13 +1042,13 @@
         <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1054,13 +1056,13 @@
         <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1068,13 +1070,13 @@
         <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1085,10 +1087,10 @@
         <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1099,10 +1101,10 @@
         <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1113,10 +1115,10 @@
         <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1127,10 +1129,10 @@
         <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1138,13 +1140,13 @@
         <v>2022</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1152,13 +1154,13 @@
         <v>2022</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1166,13 +1168,13 @@
         <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1180,13 +1182,13 @@
         <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1194,13 +1196,13 @@
         <v>2022</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1208,13 +1210,13 @@
         <v>2022</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1222,13 +1224,13 @@
         <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1236,13 +1238,13 @@
         <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1250,13 +1252,13 @@
         <v>2022</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1264,13 +1266,13 @@
         <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1278,13 +1280,13 @@
         <v>2022</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1292,13 +1294,13 @@
         <v>2022</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1306,13 +1308,13 @@
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1320,13 +1322,13 @@
         <v>2022</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1334,13 +1336,13 @@
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1348,13 +1350,13 @@
         <v>2022</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1362,13 +1364,13 @@
         <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1376,13 +1378,13 @@
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1390,13 +1392,13 @@
         <v>2022</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1404,13 +1406,13 @@
         <v>2021</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1418,13 +1420,13 @@
         <v>2021</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1432,13 +1434,13 @@
         <v>2021</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1446,13 +1448,13 @@
         <v>2021</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1460,13 +1462,13 @@
         <v>2021</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1474,13 +1476,13 @@
         <v>2021</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1488,13 +1490,13 @@
         <v>2021</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1502,13 +1504,13 @@
         <v>2021</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1516,13 +1518,13 @@
         <v>2021</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1530,13 +1532,13 @@
         <v>2021</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -1544,13 +1546,13 @@
         <v>2021</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -1558,13 +1560,13 @@
         <v>2021</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1572,13 +1574,13 @@
         <v>2021</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1586,13 +1588,13 @@
         <v>2021</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1600,13 +1602,13 @@
         <v>2021</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -1614,13 +1616,13 @@
         <v>2021</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -1628,13 +1630,13 @@
         <v>2021</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1642,13 +1644,13 @@
         <v>2021</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -1656,13 +1658,13 @@
         <v>2021</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -1670,13 +1672,13 @@
         <v>2021</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1684,13 +1686,13 @@
         <v>2021</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1698,13 +1700,13 @@
         <v>2021</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -1712,13 +1714,13 @@
         <v>2021</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -1726,13 +1728,13 @@
         <v>2021</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -1740,13 +1742,13 @@
         <v>2021</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -1754,13 +1756,13 @@
         <v>2021</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -1768,13 +1770,13 @@
         <v>2020</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1782,13 +1784,13 @@
         <v>2020</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -1796,13 +1798,13 @@
         <v>2020</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -1810,13 +1812,13 @@
         <v>2020</v>
       </c>
       <c r="C79" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -1824,13 +1826,13 @@
         <v>2020</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -1838,13 +1840,13 @@
         <v>2020</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -1852,13 +1854,13 @@
         <v>2020</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1866,13 +1868,13 @@
         <v>2020</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -1880,13 +1882,13 @@
         <v>2020</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -1894,13 +1896,13 @@
         <v>2020</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -1908,13 +1910,13 @@
         <v>2020</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -1922,13 +1924,13 @@
         <v>2020</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -1936,13 +1938,13 @@
         <v>2020</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -1950,13 +1952,13 @@
         <v>2019</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -1964,13 +1966,13 @@
         <v>2019</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -1978,13 +1980,13 @@
         <v>2019</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -1992,13 +1994,13 @@
         <v>2019</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2006,13 +2008,13 @@
         <v>2019</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2020,13 +2022,13 @@
         <v>2019</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -2034,13 +2036,13 @@
         <v>2019</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2048,13 +2050,13 @@
         <v>2019</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -2062,13 +2064,13 @@
         <v>2019</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -2076,13 +2078,13 @@
         <v>2019</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -2090,13 +2092,13 @@
         <v>2019</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -2104,13 +2106,13 @@
         <v>2019</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -2118,13 +2120,13 @@
         <v>2019</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -2132,13 +2134,13 @@
         <v>2019</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -2146,13 +2148,13 @@
         <v>2019</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -2160,13 +2162,13 @@
         <v>2019</v>
       </c>
       <c r="C104" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2174,13 +2176,13 @@
         <v>2019</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -2188,13 +2190,13 @@
         <v>2018</v>
       </c>
       <c r="C106" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -2202,13 +2204,13 @@
         <v>2018</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -2216,13 +2218,13 @@
         <v>2018</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -2230,13 +2232,13 @@
         <v>2018</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -2244,13 +2246,13 @@
         <v>2018</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2258,13 +2260,13 @@
         <v>2018</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -2272,13 +2274,13 @@
         <v>2018</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -2286,13 +2288,13 @@
         <v>2017</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -2300,13 +2302,13 @@
         <v>2017</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -2314,13 +2316,13 @@
         <v>2017</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D115" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -2328,13 +2330,13 @@
         <v>2017</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D116" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -2342,13 +2344,13 @@
         <v>2017</v>
       </c>
       <c r="C117" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -2356,13 +2358,13 @@
         <v>2017</v>
       </c>
       <c r="C118" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -2370,13 +2372,13 @@
         <v>2017</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -2384,13 +2386,13 @@
         <v>2017</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D120" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -2398,13 +2400,13 @@
         <v>2017</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D121" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -2412,13 +2414,13 @@
         <v>2017</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D122" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2426,13 +2428,13 @@
         <v>2017</v>
       </c>
       <c r="C123" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -2440,13 +2442,13 @@
         <v>2017</v>
       </c>
       <c r="C124" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -2454,13 +2456,13 @@
         <v>2017</v>
       </c>
       <c r="C125" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D125" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -2468,13 +2470,13 @@
         <v>2017</v>
       </c>
       <c r="C126" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D126" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -2482,13 +2484,13 @@
         <v>2017</v>
       </c>
       <c r="C127" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D127" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -2496,13 +2498,13 @@
         <v>2017</v>
       </c>
       <c r="C128" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -2510,13 +2512,13 @@
         <v>2016</v>
       </c>
       <c r="C129" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D129" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -2524,13 +2526,13 @@
         <v>2016</v>
       </c>
       <c r="C130" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D130" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -2538,13 +2540,13 @@
         <v>2016</v>
       </c>
       <c r="C131" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -2552,13 +2554,13 @@
         <v>2016</v>
       </c>
       <c r="C132" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D132" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -2566,13 +2568,13 @@
         <v>2016</v>
       </c>
       <c r="C133" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D133" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -2580,13 +2582,13 @@
         <v>2016</v>
       </c>
       <c r="C134" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D134" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -2594,13 +2596,13 @@
         <v>2016</v>
       </c>
       <c r="C135" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D135" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>38</v>
       </c>
@@ -2608,13 +2610,13 @@
         <v>2016</v>
       </c>
       <c r="C136" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D136" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -2622,13 +2624,13 @@
         <v>2016</v>
       </c>
       <c r="C137" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D137" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -2636,13 +2638,13 @@
         <v>2016</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D138" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -2650,13 +2652,13 @@
         <v>2016</v>
       </c>
       <c r="C139" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D139" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -2664,13 +2666,13 @@
         <v>2016</v>
       </c>
       <c r="C140" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D140" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>43</v>
       </c>
@@ -2678,13 +2680,13 @@
         <v>2016</v>
       </c>
       <c r="C141" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D141" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -2692,13 +2694,13 @@
         <v>2016</v>
       </c>
       <c r="C142" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D142" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>44</v>
       </c>
@@ -2706,13 +2708,13 @@
         <v>2015</v>
       </c>
       <c r="C143" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D143" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -2720,13 +2722,13 @@
         <v>2015</v>
       </c>
       <c r="C144" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D144" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -2734,13 +2736,13 @@
         <v>2015</v>
       </c>
       <c r="C145" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D145" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -2748,13 +2750,13 @@
         <v>2015</v>
       </c>
       <c r="C146" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D146" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -2762,13 +2764,13 @@
         <v>2015</v>
       </c>
       <c r="C147" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D147" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -2776,13 +2778,13 @@
         <v>2015</v>
       </c>
       <c r="C148" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D148" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -2790,13 +2792,13 @@
         <v>2014</v>
       </c>
       <c r="C149" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D149" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -2804,13 +2806,13 @@
         <v>2013</v>
       </c>
       <c r="C150" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D150" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>49</v>
       </c>
@@ -2818,13 +2820,13 @@
         <v>2013</v>
       </c>
       <c r="C151" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D151" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>50</v>
       </c>
@@ -2832,13 +2834,13 @@
         <v>2013</v>
       </c>
       <c r="C152" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D152" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -2846,13 +2848,13 @@
         <v>2013</v>
       </c>
       <c r="C153" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D153" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>47</v>
       </c>
@@ -2860,13 +2862,13 @@
         <v>2013</v>
       </c>
       <c r="C154" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D154" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -2874,13 +2876,13 @@
         <v>2013</v>
       </c>
       <c r="C155" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D155" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -2888,13 +2890,13 @@
         <v>2013</v>
       </c>
       <c r="C156" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D156" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>52</v>
       </c>
@@ -2902,13 +2904,13 @@
         <v>2012</v>
       </c>
       <c r="C157" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D157" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>52</v>
       </c>
@@ -2919,10 +2921,10 @@
         <v>86</v>
       </c>
       <c r="D158" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>53</v>
       </c>
@@ -2930,13 +2932,13 @@
         <v>2012</v>
       </c>
       <c r="C159" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D159" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>54</v>
       </c>
@@ -2944,13 +2946,13 @@
         <v>2012</v>
       </c>
       <c r="C160" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D160" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>52</v>
       </c>
@@ -2958,13 +2960,13 @@
         <v>2012</v>
       </c>
       <c r="C161" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D161" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>55</v>
       </c>
@@ -2972,13 +2974,13 @@
         <v>2012</v>
       </c>
       <c r="C162" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D162" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -2986,13 +2988,13 @@
         <v>2012</v>
       </c>
       <c r="C163" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D163" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>54</v>
       </c>
@@ -3000,13 +3002,13 @@
         <v>2012</v>
       </c>
       <c r="C164" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D164" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -3014,13 +3016,13 @@
         <v>2012</v>
       </c>
       <c r="C165" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D165" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -3028,13 +3030,13 @@
         <v>2012</v>
       </c>
       <c r="C166" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D166" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -3042,13 +3044,13 @@
         <v>2012</v>
       </c>
       <c r="C167" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D167" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>52</v>
       </c>
@@ -3056,13 +3058,13 @@
         <v>2012</v>
       </c>
       <c r="C168" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D168" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>52</v>
       </c>
@@ -3070,13 +3072,13 @@
         <v>2012</v>
       </c>
       <c r="C169" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D169" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>52</v>
       </c>
@@ -3084,13 +3086,13 @@
         <v>2012</v>
       </c>
       <c r="C170" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D170" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>56</v>
       </c>
@@ -3098,13 +3100,13 @@
         <v>2011</v>
       </c>
       <c r="C171" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D171" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>55</v>
       </c>
@@ -3112,13 +3114,13 @@
         <v>2011</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D172" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>54</v>
       </c>
@@ -3126,13 +3128,13 @@
         <v>2011</v>
       </c>
       <c r="C173" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D173" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -3140,13 +3142,13 @@
         <v>2011</v>
       </c>
       <c r="C174" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D174" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>47</v>
       </c>
@@ -3154,13 +3156,13 @@
         <v>2011</v>
       </c>
       <c r="C175" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D175" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>51</v>
       </c>
@@ -3168,13 +3170,13 @@
         <v>2011</v>
       </c>
       <c r="C176" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D176" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>56</v>
       </c>
@@ -3182,13 +3184,13 @@
         <v>2011</v>
       </c>
       <c r="C177" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D177" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>53</v>
       </c>
@@ -3196,13 +3198,13 @@
         <v>2010</v>
       </c>
       <c r="C178" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D178" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>54</v>
       </c>
@@ -3210,13 +3212,13 @@
         <v>2010</v>
       </c>
       <c r="C179" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D179" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>54</v>
       </c>
@@ -3224,13 +3226,13 @@
         <v>2010</v>
       </c>
       <c r="C180" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D180" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>55</v>
       </c>
@@ -3238,13 +3240,13 @@
         <v>2010</v>
       </c>
       <c r="C181" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D181" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>57</v>
       </c>
@@ -3252,13 +3254,13 @@
         <v>2010</v>
       </c>
       <c r="C182" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D182" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -3266,13 +3268,13 @@
         <v>2010</v>
       </c>
       <c r="C183" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D183" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>53</v>
       </c>
@@ -3280,13 +3282,13 @@
         <v>2010</v>
       </c>
       <c r="C184" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D184" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>53</v>
       </c>
@@ -3294,13 +3296,13 @@
         <v>2009</v>
       </c>
       <c r="C185" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D185" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>54</v>
       </c>
@@ -3308,13 +3310,13 @@
         <v>2009</v>
       </c>
       <c r="C186" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D186" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -3322,13 +3324,13 @@
         <v>2009</v>
       </c>
       <c r="C187" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D187" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -3336,13 +3338,13 @@
         <v>2009</v>
       </c>
       <c r="C188" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D188" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>59</v>
       </c>
@@ -3350,13 +3352,13 @@
         <v>2008</v>
       </c>
       <c r="C189" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D189" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -3364,13 +3366,13 @@
         <v>2008</v>
       </c>
       <c r="C190" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D190" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>59</v>
       </c>
@@ -3378,13 +3380,13 @@
         <v>2008</v>
       </c>
       <c r="C191" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D191" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>60</v>
       </c>
@@ -3392,13 +3394,13 @@
         <v>2008</v>
       </c>
       <c r="C192" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D192" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>59</v>
       </c>
@@ -3406,13 +3408,13 @@
         <v>2008</v>
       </c>
       <c r="C193" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D193" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>60</v>
       </c>
@@ -3420,13 +3422,13 @@
         <v>2008</v>
       </c>
       <c r="C194" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D194" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -3434,13 +3436,13 @@
         <v>2008</v>
       </c>
       <c r="C195" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D195" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>59</v>
       </c>
@@ -3448,13 +3450,13 @@
         <v>2007</v>
       </c>
       <c r="C196" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D196" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>60</v>
       </c>
@@ -3462,13 +3464,13 @@
         <v>2007</v>
       </c>
       <c r="C197" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D197" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>60</v>
       </c>
@@ -3476,13 +3478,13 @@
         <v>2007</v>
       </c>
       <c r="C198" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D198" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>59</v>
       </c>
@@ -3490,13 +3492,13 @@
         <v>2007</v>
       </c>
       <c r="C199" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D199" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>61</v>
       </c>
@@ -3504,13 +3506,13 @@
         <v>2007</v>
       </c>
       <c r="C200" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D200" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>62</v>
       </c>
@@ -3518,13 +3520,13 @@
         <v>2007</v>
       </c>
       <c r="C201" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D201" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>63</v>
       </c>
@@ -3532,13 +3534,13 @@
         <v>2006</v>
       </c>
       <c r="C202" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D202" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>64</v>
       </c>
@@ -3546,13 +3548,13 @@
         <v>2006</v>
       </c>
       <c r="C203" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D203" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>59</v>
       </c>
@@ -3560,13 +3562,13 @@
         <v>2006</v>
       </c>
       <c r="C204" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D204" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>60</v>
       </c>
@@ -3574,13 +3576,13 @@
         <v>2006</v>
       </c>
       <c r="C205" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D205" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>64</v>
       </c>
@@ -3588,13 +3590,13 @@
         <v>2006</v>
       </c>
       <c r="C206" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D206" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>59</v>
       </c>
@@ -3602,13 +3604,13 @@
         <v>2006</v>
       </c>
       <c r="C207" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D207" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>61</v>
       </c>
@@ -3616,13 +3618,13 @@
         <v>2006</v>
       </c>
       <c r="C208" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D208" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>62</v>
       </c>
@@ -3630,13 +3632,13 @@
         <v>2006</v>
       </c>
       <c r="C209" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D209" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>65</v>
       </c>
@@ -3644,13 +3646,13 @@
         <v>2005</v>
       </c>
       <c r="C210" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D210" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>66</v>
       </c>
@@ -3658,13 +3660,13 @@
         <v>2005</v>
       </c>
       <c r="C211" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D211" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>59</v>
       </c>
@@ -3672,13 +3674,13 @@
         <v>2005</v>
       </c>
       <c r="C212" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D212" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>67</v>
       </c>
@@ -3686,13 +3688,13 @@
         <v>2005</v>
       </c>
       <c r="C213" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D213" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>60</v>
       </c>
@@ -3700,13 +3702,13 @@
         <v>2005</v>
       </c>
       <c r="C214" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D214" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>64</v>
       </c>
@@ -3714,13 +3716,13 @@
         <v>2005</v>
       </c>
       <c r="C215" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D215" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>68</v>
       </c>
@@ -3728,13 +3730,13 @@
         <v>2005</v>
       </c>
       <c r="C216" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D216" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>69</v>
       </c>
@@ -3742,13 +3744,13 @@
         <v>2005</v>
       </c>
       <c r="C217" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D217" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>68</v>
       </c>
@@ -3756,13 +3758,13 @@
         <v>2005</v>
       </c>
       <c r="C218" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D218" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>69</v>
       </c>
@@ -3770,13 +3772,13 @@
         <v>2005</v>
       </c>
       <c r="C219" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D219" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>64</v>
       </c>
@@ -3784,13 +3786,13 @@
         <v>2005</v>
       </c>
       <c r="C220" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D220" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>60</v>
       </c>
@@ -3798,13 +3800,13 @@
         <v>2005</v>
       </c>
       <c r="C221" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D221" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>59</v>
       </c>
@@ -3812,13 +3814,13 @@
         <v>2005</v>
       </c>
       <c r="C222" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D222" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>70</v>
       </c>
@@ -3826,13 +3828,13 @@
         <v>2004</v>
       </c>
       <c r="C223" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D223" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>66</v>
       </c>
@@ -3840,13 +3842,13 @@
         <v>2004</v>
       </c>
       <c r="C224" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D224" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>61</v>
       </c>
@@ -3854,13 +3856,13 @@
         <v>2004</v>
       </c>
       <c r="C225" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D225" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>67</v>
       </c>
@@ -3868,13 +3870,13 @@
         <v>2004</v>
       </c>
       <c r="C226" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D226" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>64</v>
       </c>
@@ -3882,13 +3884,13 @@
         <v>2004</v>
       </c>
       <c r="C227" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D227" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>68</v>
       </c>
@@ -3896,13 +3898,13 @@
         <v>2004</v>
       </c>
       <c r="C228" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D228" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>69</v>
       </c>
@@ -3910,13 +3912,13 @@
         <v>2004</v>
       </c>
       <c r="C229" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D229" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>70</v>
       </c>
@@ -3924,13 +3926,13 @@
         <v>2004</v>
       </c>
       <c r="C230" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D230" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>66</v>
       </c>
@@ -3938,13 +3940,13 @@
         <v>2004</v>
       </c>
       <c r="C231" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D231" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>64</v>
       </c>
@@ -3952,13 +3954,13 @@
         <v>2004</v>
       </c>
       <c r="C232" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D232" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>68</v>
       </c>
@@ -3966,13 +3968,13 @@
         <v>2004</v>
       </c>
       <c r="C233" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D233" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>69</v>
       </c>
@@ -3980,13 +3982,13 @@
         <v>2004</v>
       </c>
       <c r="C234" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D234" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>71</v>
       </c>
@@ -3994,13 +3996,13 @@
         <v>2004</v>
       </c>
       <c r="C235" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D235" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>70</v>
       </c>
@@ -4008,13 +4010,13 @@
         <v>2004</v>
       </c>
       <c r="C236" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D236" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>64</v>
       </c>
@@ -4022,13 +4024,13 @@
         <v>2004</v>
       </c>
       <c r="C237" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D237" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>72</v>
       </c>
@@ -4036,13 +4038,13 @@
         <v>2003</v>
       </c>
       <c r="C238" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D238" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>70</v>
       </c>
@@ -4050,13 +4052,13 @@
         <v>2003</v>
       </c>
       <c r="C239" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D239" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>73</v>
       </c>
@@ -4064,13 +4066,13 @@
         <v>2003</v>
       </c>
       <c r="C240" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D240" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>67</v>
       </c>
@@ -4078,13 +4080,13 @@
         <v>2003</v>
       </c>
       <c r="C241" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D241" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>74</v>
       </c>
@@ -4092,13 +4094,13 @@
         <v>2003</v>
       </c>
       <c r="C242" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D242" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>75</v>
       </c>
@@ -4106,13 +4108,13 @@
         <v>2003</v>
       </c>
       <c r="C243" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D243" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>76</v>
       </c>
@@ -4120,13 +4122,13 @@
         <v>2003</v>
       </c>
       <c r="C244" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D244" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>68</v>
       </c>
@@ -4134,13 +4136,13 @@
         <v>2003</v>
       </c>
       <c r="C245" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D245" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>68</v>
       </c>
@@ -4148,13 +4150,13 @@
         <v>2003</v>
       </c>
       <c r="C246" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D246" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>76</v>
       </c>
@@ -4162,13 +4164,13 @@
         <v>2003</v>
       </c>
       <c r="C247" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D247" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>70</v>
       </c>
@@ -4176,13 +4178,13 @@
         <v>2003</v>
       </c>
       <c r="C248" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D248" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>77</v>
       </c>
@@ -4190,13 +4192,13 @@
         <v>1999</v>
       </c>
       <c r="C249" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D249" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>78</v>
       </c>
@@ -4204,13 +4206,13 @@
         <v>1999</v>
       </c>
       <c r="C250" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D250" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>77</v>
       </c>
@@ -4218,13 +4220,13 @@
         <v>1999</v>
       </c>
       <c r="C251" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D251" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>79</v>
       </c>
@@ -4232,13 +4234,13 @@
         <v>1998</v>
       </c>
       <c r="C252" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D252" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>80</v>
       </c>
@@ -4246,13 +4248,13 @@
         <v>1998</v>
       </c>
       <c r="C253" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D253" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>80</v>
       </c>
@@ -4260,13 +4262,13 @@
         <v>1998</v>
       </c>
       <c r="C254" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D254" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>79</v>
       </c>
@@ -4274,13 +4276,13 @@
         <v>1998</v>
       </c>
       <c r="C255" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D255" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>81</v>
       </c>
@@ -4288,13 +4290,13 @@
         <v>1997</v>
       </c>
       <c r="C256" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D256" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>82</v>
       </c>
@@ -4302,13 +4304,13 @@
         <v>1989</v>
       </c>
       <c r="C257" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D257" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>83</v>
       </c>
@@ -4316,13 +4318,13 @@
         <v>1982</v>
       </c>
       <c r="C258" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D258" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>83</v>
       </c>
@@ -4330,13 +4332,13 @@
         <v>1981</v>
       </c>
       <c r="C259" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D259" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>84</v>
       </c>
@@ -4344,13 +4346,13 @@
         <v>1981</v>
       </c>
       <c r="C260" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D260" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>83</v>
       </c>
@@ -4358,13 +4360,13 @@
         <v>1981</v>
       </c>
       <c r="C261" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D261" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>83</v>
       </c>
@@ -4372,13 +4374,13 @@
         <v>1980</v>
       </c>
       <c r="C262" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D262" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>85</v>
       </c>
@@ -4386,13 +4388,13 @@
         <v>1979</v>
       </c>
       <c r="C263" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D263" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>83</v>
       </c>
@@ -4400,13 +4402,13 @@
         <v>1979</v>
       </c>
       <c r="C264" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D264" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>85</v>
       </c>
@@ -4414,13 +4416,13 @@
         <v>1979</v>
       </c>
       <c r="C265" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D265" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>83</v>
       </c>
@@ -4428,10 +4430,10 @@
         <v>1979</v>
       </c>
       <c r="C266" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D266" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
